--- a/docs/assets/disciplinas/LOM3247.xlsx
+++ b/docs/assets/disciplinas/LOM3247.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao estudante uma introdução às técnicas de espectroscopia utilizadas na física da matéria condensada, na físico-química e na biofísica.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Espectroscopia de Microondas. Espectroscopia Vibracional: Infravermelho e Raman. Espectroscopia Eletrônica. Ressonância Magnética Nuclear. Ressonância Paramagnética Eletrônica. Espectroscopia Mössbauer.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Espectro Eletromagnético. Níveis de energia em átomos e moléculas. Estrutura de bandas em sólidos. Transições. Regras de seleção.
-Espectroscopia de Microondas. Espectros rotacionais. Determinação de momentos dipolares. Espectro de inversão (NH3).
-Elementos de Simetria e Teoria de Grupos. Operações de simetria. Espécies de simetria. Tabelas de caracteres.
-Espectroscopia Vibracional : Infravermelho e Raman. Espectroscopia vibracional de moléculas. Propriedades ópticas dos sólidos.. Semicondutores: gap de energia. Éxcitons. Espectroscopia Raman em cristais. Espectroscopia de absorção em cristais iônicos.
-Espectroscopia Eletrônica. Espectros eletrônicos moleculares e regras de seleção. Elementos de campo cristalino. Espectros de absorção de complexos de metais de transição. Centros de cor. Luminescência.
-O fenômeno de ressonância magnética. Ressonância Magnética Nuclear: espectros, relaxação e espectroscopia de alta resolução.
-Ressonância Paramagnética Eletrônica: espectros hiperfinos; espectros de íons metálicos; Hamiltoniano de Spin.
-Espectroscopia Mössbauer.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -113,32 +100,19 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e práticas ministradas em laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
-  </si>
-  <si>
     <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ATKINS, P. W.; FRIEDMAN, R. S. Molecular Quantum Mechanics, Oxford University Press, 1997.
-DEMTRÖDER, W. Molecular Physics, Wiley-VCH, 2006.
-HAKEN, H.; WOLF, H. C. Molecular Physics and Elements of Quantum Mechanics, Springer, 2010
-HOLLAS, J. M. Modern Spectroscopy, Wiley, 1992.
-HARRIS, D. C.; BERTOLUCCI, M. D. Symmetry and Spectroscopy, Dover, 1978.
-McHALE, J. L. Molecular Spectroscopy, Prentice Hall, 1998.
-PAVIA, D. L.; LAMPMAN, G. M.; KRIZ, G. S.; VYVYAN, J. A. Introduction to Spectroscopy, Brooks Cole, 2008.
-WEIL, J. A.; BOLTON, J. R. Electron Paramagnetic Resonance: Elementary Theory and Practical Applications, Wiley-Interscience, 2007.
-DICKSON, D. P. E.; BERRY, F. J. Mössbauer Spectroscopy, Cambridge University Press, 2005.
-INGLE Jr., J. D.; CROUCH, S. R. Spectrochemical Analysis, Prentice Hall, New Jersey, 1988.
-LEVER, A. B. P. Inorganic Electronic Spectroscopy, Elsevier Science, New York, 1984.</t>
   </si>
 </sst>
 </file>
@@ -494,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,93 +593,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
